--- a/APM files/128645361/128645361 IMPORT Stop Sell Removal.xlsx
+++ b/APM files/128645361/128645361 IMPORT Stop Sell Removal.xlsx
@@ -1,40 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\128645361\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB4A5E9-10BA-4223-9E2D-A98E327D9B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="13575" yWindow="4860" windowWidth="23100" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="6">
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>SF ID</t>
+  </si>
+  <si>
+    <t>Stop Sell Property</t>
+  </si>
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,93 +87,57 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,56 +425,1533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SF ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stop Sell Property</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Action Type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>106035528</v>
+      </c>
+      <c r="B2">
+        <v>128645361</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>106035526</v>
+      </c>
+      <c r="B3">
+        <v>128645361</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>106156685</v>
+      </c>
+      <c r="B4">
+        <v>128645361</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>106026705</v>
+      </c>
+      <c r="B5">
+        <v>128645361</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>106077228</v>
+      </c>
+      <c r="B6">
+        <v>128645361</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>106186044</v>
+      </c>
+      <c r="B7">
+        <v>128645361</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>106180378</v>
+      </c>
+      <c r="B8">
+        <v>128645361</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>105992031</v>
+      </c>
+      <c r="B9">
+        <v>128645361</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>106180373</v>
+      </c>
+      <c r="B10">
+        <v>128645361</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>106034473</v>
+      </c>
+      <c r="B11">
+        <v>128645361</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>106120676</v>
+      </c>
+      <c r="B12">
+        <v>128645361</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>106000270</v>
+      </c>
+      <c r="B13">
+        <v>128645361</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>106115115</v>
+      </c>
+      <c r="B14">
+        <v>128645361</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>106155693</v>
+      </c>
+      <c r="B15">
+        <v>128645361</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>106180360</v>
+      </c>
+      <c r="B16">
+        <v>128645361</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>106034526</v>
+      </c>
+      <c r="B17">
+        <v>128645361</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>106034472</v>
+      </c>
+      <c r="B18">
+        <v>128645361</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>106180355</v>
+      </c>
+      <c r="B19">
+        <v>128645361</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>106045972</v>
+      </c>
+      <c r="B20">
+        <v>128645361</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>106000275</v>
+      </c>
+      <c r="B21">
+        <v>128645361</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>106185470</v>
+      </c>
+      <c r="B22">
+        <v>128645361</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>106030052</v>
+      </c>
+      <c r="B23">
+        <v>128645361</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>105968235</v>
+      </c>
+      <c r="B24">
+        <v>128645361</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>106186045</v>
+      </c>
+      <c r="B25">
+        <v>128645361</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>106180566</v>
+      </c>
+      <c r="B26">
+        <v>128645361</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>106180232</v>
+      </c>
+      <c r="B27">
+        <v>128645361</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>106180229</v>
+      </c>
+      <c r="B28">
+        <v>128645361</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>106080846</v>
+      </c>
+      <c r="B29">
+        <v>128645361</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>106080331</v>
+      </c>
+      <c r="B30">
+        <v>128645361</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>105994264</v>
+      </c>
+      <c r="B31">
+        <v>128645361</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>105989830</v>
+      </c>
+      <c r="B32">
+        <v>128645361</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>106158434</v>
+      </c>
+      <c r="B33">
+        <v>128645361</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>106180359</v>
+      </c>
+      <c r="B34">
+        <v>128645361</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>106000424</v>
+      </c>
+      <c r="B35">
+        <v>128645361</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>106000278</v>
+      </c>
+      <c r="B36">
+        <v>128645361</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>106042558</v>
+      </c>
+      <c r="B37">
+        <v>128645361</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>106000273</v>
+      </c>
+      <c r="B38">
+        <v>128645361</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>106114999</v>
+      </c>
+      <c r="B39">
+        <v>128645361</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>106032071</v>
+      </c>
+      <c r="B40">
+        <v>128645361</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>106083469</v>
+      </c>
+      <c r="B41">
+        <v>128645361</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>106032063</v>
+      </c>
+      <c r="B42">
+        <v>128645361</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>106181636</v>
+      </c>
+      <c r="B43">
+        <v>128645361</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>106181632</v>
+      </c>
+      <c r="B44">
+        <v>128645361</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>106180377</v>
+      </c>
+      <c r="B45">
+        <v>128645361</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>105989834</v>
+      </c>
+      <c r="B46">
+        <v>128645361</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>106158442</v>
+      </c>
+      <c r="B47">
+        <v>128645361</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>106034532</v>
+      </c>
+      <c r="B48">
+        <v>128645361</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>105987142</v>
+      </c>
+      <c r="B49">
+        <v>128645361</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>105964066</v>
+      </c>
+      <c r="B50">
+        <v>128645361</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>106034470</v>
+      </c>
+      <c r="B51">
+        <v>128645361</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>106003998</v>
+      </c>
+      <c r="B52">
+        <v>128645361</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>106088089</v>
+      </c>
+      <c r="B53">
+        <v>128645361</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>106032066</v>
+      </c>
+      <c r="B54">
+        <v>128645361</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>106000276</v>
+      </c>
+      <c r="B55">
+        <v>128645361</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>106000272</v>
+      </c>
+      <c r="B56">
+        <v>128645361</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>106032075</v>
+      </c>
+      <c r="B57">
+        <v>128645361</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>106032073</v>
+      </c>
+      <c r="B58">
+        <v>128645361</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>106032070</v>
+      </c>
+      <c r="B59">
+        <v>128645361</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>105999428</v>
+      </c>
+      <c r="B60">
+        <v>128645361</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>106180231</v>
+      </c>
+      <c r="B61">
+        <v>128645361</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>106180423</v>
+      </c>
+      <c r="B62">
+        <v>128645361</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>106180385</v>
+      </c>
+      <c r="B63">
+        <v>128645361</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>105989826</v>
+      </c>
+      <c r="B64">
+        <v>128645361</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>106000274</v>
+      </c>
+      <c r="B65">
+        <v>128645361</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>105999885</v>
+      </c>
+      <c r="B66">
+        <v>128645361</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>106035513</v>
+      </c>
+      <c r="B67">
+        <v>128645361</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>106180388</v>
+      </c>
+      <c r="B68">
+        <v>128645361</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>106035514</v>
+      </c>
+      <c r="B69">
+        <v>128645361</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>106035508</v>
+      </c>
+      <c r="B70">
+        <v>128645361</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>106155695</v>
+      </c>
+      <c r="B71">
+        <v>128645361</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>106180366</v>
+      </c>
+      <c r="B72">
+        <v>128645361</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>106180363</v>
+      </c>
+      <c r="B73">
+        <v>128645361</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>106000277</v>
+      </c>
+      <c r="B74">
+        <v>128645361</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>105977875</v>
+      </c>
+      <c r="B75">
+        <v>128645361</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>106117113</v>
+      </c>
+      <c r="B76">
+        <v>128645361</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>106000271</v>
+      </c>
+      <c r="B77">
+        <v>128645361</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>106104820</v>
+      </c>
+      <c r="B78">
+        <v>128645361</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>106114997</v>
+      </c>
+      <c r="B79">
+        <v>128645361</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>106114536</v>
+      </c>
+      <c r="B80">
+        <v>128645361</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>106180384</v>
+      </c>
+      <c r="B81">
+        <v>128645361</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>106180387</v>
+      </c>
+      <c r="B82">
+        <v>128645361</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>106156162</v>
+      </c>
+      <c r="B83">
+        <v>128645361</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>106180374</v>
+      </c>
+      <c r="B84">
+        <v>128645361</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>106035030</v>
+      </c>
+      <c r="B85">
+        <v>128645361</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>106034546</v>
+      </c>
+      <c r="B86">
+        <v>128645361</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>106180361</v>
+      </c>
+      <c r="B87">
+        <v>128645361</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>106068184</v>
+      </c>
+      <c r="B88">
+        <v>128645361</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>106038369</v>
+      </c>
+      <c r="B89">
+        <v>128645361</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>106037086</v>
+      </c>
+      <c r="B90">
+        <v>128645361</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>106115218</v>
+      </c>
+      <c r="B91">
+        <v>128645361</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>106115114</v>
+      </c>
+      <c r="B92">
+        <v>128645361</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>105999807</v>
+      </c>
+      <c r="B93">
+        <v>128645361</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>106036272</v>
+      </c>
+      <c r="B94">
+        <v>128645361</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>106035527</v>
+      </c>
+      <c r="B95">
+        <v>128645361</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>105969849</v>
+      </c>
+      <c r="B96">
+        <v>128645361</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>106155694</v>
+      </c>
+      <c r="B97">
+        <v>128645361</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>106180372</v>
+      </c>
+      <c r="B98">
+        <v>128645361</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>105988259</v>
+      </c>
+      <c r="B99">
+        <v>128645361</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>106034481</v>
+      </c>
+      <c r="B100">
+        <v>128645361</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>106180356</v>
+      </c>
+      <c r="B101">
+        <v>128645361</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>106067765</v>
+      </c>
+      <c r="B102">
+        <v>128645361</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>106042559</v>
+      </c>
+      <c r="B103">
+        <v>128645361</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>106036955</v>
+      </c>
+      <c r="B104">
+        <v>128645361</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>106035524</v>
+      </c>
+      <c r="B105">
+        <v>128645361</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>106181638</v>
+      </c>
+      <c r="B106">
+        <v>128645361</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>106181627</v>
+      </c>
+      <c r="B107">
+        <v>128645361</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>106022328</v>
+      </c>
+      <c r="B108">
+        <v>128645361</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A108">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>